--- a/publication/analyses/outputs/supfigs/spct_rmse-z_by_c-min.xlsx
+++ b/publication/analyses/outputs/supfigs/spct_rmse-z_by_c-min.xlsx
@@ -485,7 +485,7 @@
         <v>0.3566017316017316</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005660344946059231</v>
+        <v>31.38095238095238</v>
       </c>
     </row>
     <row r="3">
@@ -499,7 +499,7 @@
         <v>1.511971704697648</v>
       </c>
       <c r="D3" t="n">
-        <v>1.615307277456598</v>
+        <v>1.616002906514979</v>
       </c>
       <c r="E3" t="n">
         <v>1975</v>
@@ -508,7 +508,7 @@
         <v>0.3562409812409812</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005654618749856845</v>
+        <v>31.34920634920635</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,7 @@
         <v>1.511971704697648</v>
       </c>
       <c r="D4" t="n">
-        <v>1.615307277456598</v>
+        <v>1.616002906514979</v>
       </c>
       <c r="E4" t="n">
         <v>1975</v>
@@ -531,7 +531,7 @@
         <v>0.3562409812409812</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005654618749856845</v>
+        <v>31.34920634920635</v>
       </c>
     </row>
     <row r="5">
@@ -545,7 +545,7 @@
         <v>1.512444401898373</v>
       </c>
       <c r="D5" t="n">
-        <v>1.615307277456598</v>
+        <v>1.616739367375187</v>
       </c>
       <c r="E5" t="n">
         <v>1973</v>
@@ -554,7 +554,7 @@
         <v>0.3558802308802309</v>
       </c>
       <c r="G5" t="n">
-        <v>0.005648892553654459</v>
+        <v>31.31746031746032</v>
       </c>
     </row>
     <row r="6">
@@ -568,7 +568,7 @@
         <v>1.512672786302653</v>
       </c>
       <c r="D6" t="n">
-        <v>1.615307277456598</v>
+        <v>1.616709792844247</v>
       </c>
       <c r="E6" t="n">
         <v>1972</v>
@@ -577,7 +577,7 @@
         <v>0.3556998556998557</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005646029455553265</v>
+        <v>31.3015873015873</v>
       </c>
     </row>
     <row r="7">
@@ -591,7 +591,7 @@
         <v>1.512672786302653</v>
       </c>
       <c r="D7" t="n">
-        <v>1.615307277456598</v>
+        <v>1.616709792844247</v>
       </c>
       <c r="E7" t="n">
         <v>1972</v>
@@ -600,7 +600,7 @@
         <v>0.3556998556998557</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005646029455553265</v>
+        <v>31.3015873015873</v>
       </c>
     </row>
     <row r="8">
@@ -614,7 +614,7 @@
         <v>1.512672786302653</v>
       </c>
       <c r="D8" t="n">
-        <v>1.615307277456598</v>
+        <v>1.616709792844247</v>
       </c>
       <c r="E8" t="n">
         <v>1972</v>
@@ -623,7 +623,7 @@
         <v>0.3556998556998557</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005646029455553265</v>
+        <v>31.3015873015873</v>
       </c>
     </row>
     <row r="9">
@@ -637,7 +637,7 @@
         <v>1.512672786302653</v>
       </c>
       <c r="D9" t="n">
-        <v>1.615307277456598</v>
+        <v>1.616709792844247</v>
       </c>
       <c r="E9" t="n">
         <v>1972</v>
@@ -646,7 +646,7 @@
         <v>0.3556998556998557</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005646029455553265</v>
+        <v>31.3015873015873</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>1.512672786302653</v>
       </c>
       <c r="D10" t="n">
-        <v>1.615307277456598</v>
+        <v>1.616709792844247</v>
       </c>
       <c r="E10" t="n">
         <v>1972</v>
@@ -669,7 +669,7 @@
         <v>0.3556998556998557</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005646029455553265</v>
+        <v>31.3015873015873</v>
       </c>
     </row>
     <row r="11">
@@ -683,7 +683,7 @@
         <v>1.513928972945058</v>
       </c>
       <c r="D11" t="n">
-        <v>1.615307277456598</v>
+        <v>1.617119590608179</v>
       </c>
       <c r="E11" t="n">
         <v>1971</v>
@@ -692,7 +692,7 @@
         <v>0.3555194805194805</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005643166357452071</v>
+        <v>31.28571428571428</v>
       </c>
     </row>
     <row r="12">
@@ -706,7 +706,7 @@
         <v>1.513928972945058</v>
       </c>
       <c r="D12" t="n">
-        <v>1.615307277456598</v>
+        <v>1.617119590608179</v>
       </c>
       <c r="E12" t="n">
         <v>1971</v>
@@ -715,7 +715,7 @@
         <v>0.3555194805194805</v>
       </c>
       <c r="G12" t="n">
-        <v>0.005643166357452071</v>
+        <v>31.28571428571428</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         <v>1.514310305144153</v>
       </c>
       <c r="D13" t="n">
-        <v>1.615307277456598</v>
+        <v>1.617524586093871</v>
       </c>
       <c r="E13" t="n">
         <v>1970</v>
@@ -738,7 +738,7 @@
         <v>0.3553391053391053</v>
       </c>
       <c r="G13" t="n">
-        <v>0.005640303259350879</v>
+        <v>31.26984126984127</v>
       </c>
     </row>
     <row r="14">
@@ -752,7 +752,7 @@
         <v>1.516064367717113</v>
       </c>
       <c r="D14" t="n">
-        <v>1.615307277456598</v>
+        <v>1.618889793767077</v>
       </c>
       <c r="E14" t="n">
         <v>1966</v>
@@ -761,7 +761,7 @@
         <v>0.3546176046176046</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005628850866946105</v>
+        <v>31.20634920634921</v>
       </c>
     </row>
     <row r="15">
@@ -775,7 +775,7 @@
         <v>1.5154720201476</v>
       </c>
       <c r="D15" t="n">
-        <v>1.615307277456598</v>
+        <v>1.617602953998483</v>
       </c>
       <c r="E15" t="n">
         <v>1964</v>
@@ -784,7 +784,7 @@
         <v>0.3542568542568543</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005623124670743719</v>
+        <v>31.17460317460317</v>
       </c>
     </row>
     <row r="16">
@@ -798,7 +798,7 @@
         <v>1.513919355354448</v>
       </c>
       <c r="D16" t="n">
-        <v>1.615307277456598</v>
+        <v>1.616076088720251</v>
       </c>
       <c r="E16" t="n">
         <v>1961</v>
@@ -807,7 +807,7 @@
         <v>0.3537157287157287</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005614535376440138</v>
+        <v>31.12698412698413</v>
       </c>
     </row>
     <row r="17">
@@ -821,7 +821,7 @@
         <v>1.514874794065303</v>
       </c>
       <c r="D17" t="n">
-        <v>1.615307277456598</v>
+        <v>1.617468969410897</v>
       </c>
       <c r="E17" t="n">
         <v>1957</v>
@@ -830,7 +830,7 @@
         <v>0.352994227994228</v>
       </c>
       <c r="G17" t="n">
-        <v>0.005603082984035365</v>
+        <v>31.06349206349206</v>
       </c>
     </row>
     <row r="18">
@@ -844,7 +844,7 @@
         <v>1.515748411218973</v>
       </c>
       <c r="D18" t="n">
-        <v>1.615307277456598</v>
+        <v>1.618060995702578</v>
       </c>
       <c r="E18" t="n">
         <v>1955</v>
@@ -853,7 +853,7 @@
         <v>0.3526334776334776</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005597356787832978</v>
+        <v>31.03174603174603</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
         <v>1.510429325219924</v>
       </c>
       <c r="D19" t="n">
-        <v>1.615307277456598</v>
+        <v>1.614010785510716</v>
       </c>
       <c r="E19" t="n">
         <v>1949</v>
@@ -876,7 +876,7 @@
         <v>0.3515512265512266</v>
       </c>
       <c r="G19" t="n">
-        <v>0.005580178199225818</v>
+        <v>30.93650793650794</v>
       </c>
     </row>
     <row r="20">
@@ -890,7 +890,7 @@
         <v>1.513172555579524</v>
       </c>
       <c r="D20" t="n">
-        <v>1.615307277456598</v>
+        <v>1.614743065306736</v>
       </c>
       <c r="E20" t="n">
         <v>1946</v>
@@ -899,7 +899,7 @@
         <v>0.351010101010101</v>
       </c>
       <c r="G20" t="n">
-        <v>0.005571588904922238</v>
+        <v>30.88888888888889</v>
       </c>
     </row>
     <row r="21">
@@ -913,7 +913,7 @@
         <v>1.514664865884158</v>
       </c>
       <c r="D21" t="n">
-        <v>1.615307277456598</v>
+        <v>1.615585135160913</v>
       </c>
       <c r="E21" t="n">
         <v>1943</v>
@@ -922,7 +922,7 @@
         <v>0.3504689754689755</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005562999610618659</v>
+        <v>30.84126984126984</v>
       </c>
     </row>
     <row r="22">
@@ -936,7 +936,7 @@
         <v>1.514542136922047</v>
       </c>
       <c r="D22" t="n">
-        <v>1.615307277456598</v>
+        <v>1.614785057574994</v>
       </c>
       <c r="E22" t="n">
         <v>1942</v>
@@ -945,7 +945,7 @@
         <v>0.3502886002886003</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005560136512517465</v>
+        <v>30.82539682539683</v>
       </c>
     </row>
     <row r="23">
@@ -959,7 +959,7 @@
         <v>1.518173921665251</v>
       </c>
       <c r="D23" t="n">
-        <v>1.615307277456598</v>
+        <v>1.615473819241175</v>
       </c>
       <c r="E23" t="n">
         <v>1938</v>
@@ -968,7 +968,7 @@
         <v>0.3495670995670996</v>
       </c>
       <c r="G23" t="n">
-        <v>0.005548684120112691</v>
+        <v>30.76190476190476</v>
       </c>
     </row>
     <row r="24">
@@ -982,7 +982,7 @@
         <v>1.512999224106529</v>
       </c>
       <c r="D24" t="n">
-        <v>1.615307277456598</v>
+        <v>1.610220546530715</v>
       </c>
       <c r="E24" t="n">
         <v>1934</v>
@@ -991,7 +991,7 @@
         <v>0.3488455988455988</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005537231727707918</v>
+        <v>30.6984126984127</v>
       </c>
     </row>
     <row r="25">
@@ -1005,7 +1005,7 @@
         <v>1.50990173311388</v>
       </c>
       <c r="D25" t="n">
-        <v>1.615307277456598</v>
+        <v>1.603627636421485</v>
       </c>
       <c r="E25" t="n">
         <v>1925</v>
@@ -1014,7 +1014,7 @@
         <v>0.3472222222222222</v>
       </c>
       <c r="G25" t="n">
-        <v>0.005511463844797178</v>
+        <v>30.55555555555556</v>
       </c>
     </row>
     <row r="26">
@@ -1028,7 +1028,7 @@
         <v>1.49844333101582</v>
       </c>
       <c r="D26" t="n">
-        <v>1.615307277456598</v>
+        <v>1.599852271604728</v>
       </c>
       <c r="E26" t="n">
         <v>1918</v>
@@ -1037,7 +1037,7 @@
         <v>0.345959595959596</v>
       </c>
       <c r="G26" t="n">
-        <v>0.005491422158088825</v>
+        <v>30.44444444444444</v>
       </c>
     </row>
     <row r="27">
@@ -1051,7 +1051,7 @@
         <v>1.500660369349593</v>
       </c>
       <c r="D27" t="n">
-        <v>1.615307277456598</v>
+        <v>1.599873141635445</v>
       </c>
       <c r="E27" t="n">
         <v>1908</v>
@@ -1060,7 +1060,7 @@
         <v>0.3441558441558442</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005462791177076891</v>
+        <v>30.28571428571428</v>
       </c>
     </row>
     <row r="28">
@@ -1074,7 +1074,7 @@
         <v>1.505725311491191</v>
       </c>
       <c r="D28" t="n">
-        <v>1.615307277456598</v>
+        <v>1.600770944597433</v>
       </c>
       <c r="E28" t="n">
         <v>1903</v>
@@ -1083,7 +1083,7 @@
         <v>0.3432539682539683</v>
       </c>
       <c r="G28" t="n">
-        <v>0.005448475686570925</v>
+        <v>30.20634920634921</v>
       </c>
     </row>
     <row r="29">
@@ -1097,7 +1097,7 @@
         <v>1.498661640347972</v>
       </c>
       <c r="D29" t="n">
-        <v>1.615307277456598</v>
+        <v>1.5995685659886</v>
       </c>
       <c r="E29" t="n">
         <v>1896</v>
@@ -1106,7 +1106,7 @@
         <v>0.341991341991342</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005428433999862572</v>
+        <v>30.09523809523809</v>
       </c>
     </row>
     <row r="30">
@@ -1120,7 +1120,7 @@
         <v>1.490594820587807</v>
       </c>
       <c r="D30" t="n">
-        <v>1.615307277456598</v>
+        <v>1.60009321694631</v>
       </c>
       <c r="E30" t="n">
         <v>1878</v>
@@ -1129,7 +1129,7 @@
         <v>0.3387445887445887</v>
       </c>
       <c r="G30" t="n">
-        <v>0.005376898234041091</v>
+        <v>29.80952380952381</v>
       </c>
     </row>
     <row r="31">
@@ -1143,7 +1143,7 @@
         <v>1.479211393773153</v>
       </c>
       <c r="D31" t="n">
-        <v>1.615307277456598</v>
+        <v>1.598840566934998</v>
       </c>
       <c r="E31" t="n">
         <v>1861</v>
@@ -1152,7 +1152,7 @@
         <v>0.3356782106782107</v>
       </c>
       <c r="G31" t="n">
-        <v>0.005328225566320804</v>
+        <v>29.53968253968254</v>
       </c>
     </row>
     <row r="32">
@@ -1166,7 +1166,7 @@
         <v>1.473605511984118</v>
       </c>
       <c r="D32" t="n">
-        <v>1.615307277456598</v>
+        <v>1.598619831636245</v>
       </c>
       <c r="E32" t="n">
         <v>1849</v>
@@ -1175,7 +1175,7 @@
         <v>0.3335137085137085</v>
       </c>
       <c r="G32" t="n">
-        <v>0.005293868389106485</v>
+        <v>29.34920634920635</v>
       </c>
     </row>
     <row r="33">
@@ -1189,7 +1189,7 @@
         <v>1.458620960514648</v>
       </c>
       <c r="D33" t="n">
-        <v>1.615307277456598</v>
+        <v>1.599162124009779</v>
       </c>
       <c r="E33" t="n">
         <v>1834</v>
@@ -1198,7 +1198,7 @@
         <v>0.3308080808080808</v>
       </c>
       <c r="G33" t="n">
-        <v>0.005250921917588585</v>
+        <v>29.11111111111111</v>
       </c>
     </row>
     <row r="34">
@@ -1212,7 +1212,7 @@
         <v>1.414671391317796</v>
       </c>
       <c r="D34" t="n">
-        <v>1.615307277456598</v>
+        <v>1.599417458278982</v>
       </c>
       <c r="E34" t="n">
         <v>1826</v>
@@ -1221,7 +1221,7 @@
         <v>0.3293650793650794</v>
       </c>
       <c r="G34" t="n">
-        <v>0.005228017132779037</v>
+        <v>28.98412698412698</v>
       </c>
     </row>
     <row r="35">
@@ -1235,7 +1235,7 @@
         <v>1.402162149197043</v>
       </c>
       <c r="D35" t="n">
-        <v>1.615307277456598</v>
+        <v>1.597281007388254</v>
       </c>
       <c r="E35" t="n">
         <v>1814</v>
@@ -1244,7 +1244,7 @@
         <v>0.3272005772005772</v>
       </c>
       <c r="G35" t="n">
-        <v>0.005193659955564717</v>
+        <v>28.79365079365079</v>
       </c>
     </row>
     <row r="36">
@@ -1258,7 +1258,7 @@
         <v>1.40413370825183</v>
       </c>
       <c r="D36" t="n">
-        <v>1.615307277456598</v>
+        <v>1.603954294558374</v>
       </c>
       <c r="E36" t="n">
         <v>1782</v>
@@ -1267,7 +1267,7 @@
         <v>0.3214285714285715</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005102040816326531</v>
+        <v>28.28571428571428</v>
       </c>
     </row>
     <row r="37">
@@ -1281,7 +1281,7 @@
         <v>1.384411210576936</v>
       </c>
       <c r="D37" t="n">
-        <v>1.615307277456598</v>
+        <v>1.606798331626519</v>
       </c>
       <c r="E37" t="n">
         <v>1763</v>
@@ -1290,7 +1290,7 @@
         <v>0.318001443001443</v>
       </c>
       <c r="G37" t="n">
-        <v>0.005047641952403857</v>
+        <v>27.98412698412698</v>
       </c>
     </row>
     <row r="38">
@@ -1304,7 +1304,7 @@
         <v>1.394248057093267</v>
       </c>
       <c r="D38" t="n">
-        <v>1.615307277456598</v>
+        <v>1.610332034086212</v>
       </c>
       <c r="E38" t="n">
         <v>1733</v>
@@ -1313,7 +1313,7 @@
         <v>0.3125901875901876</v>
       </c>
       <c r="G38" t="n">
-        <v>0.004961749009368057</v>
+        <v>27.50793650793651</v>
       </c>
     </row>
     <row r="39">
@@ -1327,7 +1327,7 @@
         <v>1.336371936215135</v>
       </c>
       <c r="D39" t="n">
-        <v>1.615307277456598</v>
+        <v>1.605934149064359</v>
       </c>
       <c r="E39" t="n">
         <v>1711</v>
@@ -1336,7 +1336,7 @@
         <v>0.3086219336219336</v>
       </c>
       <c r="G39" t="n">
-        <v>0.004898760851141804</v>
+        <v>27.15873015873016</v>
       </c>
     </row>
     <row r="40">
@@ -1350,7 +1350,7 @@
         <v>1.341725844540851</v>
       </c>
       <c r="D40" t="n">
-        <v>1.615307277456598</v>
+        <v>1.603339620435709</v>
       </c>
       <c r="E40" t="n">
         <v>1676</v>
@@ -1359,7 +1359,7 @@
         <v>0.3023088023088023</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004798552417600036</v>
+        <v>26.6031746031746</v>
       </c>
     </row>
     <row r="41">
@@ -1373,7 +1373,7 @@
         <v>1.382696998580442</v>
       </c>
       <c r="D41" t="n">
-        <v>1.615307277456598</v>
+        <v>1.607803722711402</v>
       </c>
       <c r="E41" t="n">
         <v>1619</v>
@@ -1382,7 +1382,7 @@
         <v>0.292027417027417</v>
       </c>
       <c r="G41" t="n">
-        <v>0.004635355825832016</v>
+        <v>25.6984126984127</v>
       </c>
     </row>
     <row r="42">
@@ -1396,7 +1396,7 @@
         <v>1.365965356499977</v>
       </c>
       <c r="D42" t="n">
-        <v>1.615307277456598</v>
+        <v>1.603424777184309</v>
       </c>
       <c r="E42" t="n">
         <v>1548</v>
@@ -1405,7 +1405,7 @@
         <v>0.2792207792207792</v>
       </c>
       <c r="G42" t="n">
-        <v>0.004432075860647289</v>
+        <v>24.57142857142857</v>
       </c>
     </row>
     <row r="43">
@@ -1419,7 +1419,7 @@
         <v>1.397086547081999</v>
       </c>
       <c r="D43" t="n">
-        <v>1.615307277456598</v>
+        <v>1.560339712183514</v>
       </c>
       <c r="E43" t="n">
         <v>1472</v>
@@ -1428,7 +1428,7 @@
         <v>0.2655122655122655</v>
       </c>
       <c r="G43" t="n">
-        <v>0.004214480404956596</v>
+        <v>23.36507936507936</v>
       </c>
     </row>
     <row r="44">
@@ -1442,7 +1442,7 @@
         <v>1.437046464602757</v>
       </c>
       <c r="D44" t="n">
-        <v>1.615307277456598</v>
+        <v>1.501951814193386</v>
       </c>
       <c r="E44" t="n">
         <v>1392</v>
@@ -1451,7 +1451,7 @@
         <v>0.2510822510822511</v>
       </c>
       <c r="G44" t="n">
-        <v>0.003985432556861128</v>
+        <v>22.09523809523809</v>
       </c>
     </row>
     <row r="45">
@@ -1465,7 +1465,7 @@
         <v>1.376052890979605</v>
       </c>
       <c r="D45" t="n">
-        <v>1.615307277456598</v>
+        <v>1.428047081826624</v>
       </c>
       <c r="E45" t="n">
         <v>1235</v>
@@ -1474,7 +1474,7 @@
         <v>0.2227633477633478</v>
       </c>
       <c r="G45" t="n">
-        <v>0.003535926154973774</v>
+        <v>19.6031746031746</v>
       </c>
     </row>
     <row r="46">
@@ -1488,7 +1488,7 @@
         <v>1.317397406498933</v>
       </c>
       <c r="D46" t="n">
-        <v>1.615307277456598</v>
+        <v>1.315880376116133</v>
       </c>
       <c r="E46" t="n">
         <v>1019</v>
@@ -1497,7 +1497,7 @@
         <v>0.1838023088023088</v>
       </c>
       <c r="G46" t="n">
-        <v>0.002917496965116013</v>
+        <v>16.17460317460317</v>
       </c>
     </row>
     <row r="47">
@@ -1511,7 +1511,7 @@
         <v>1.057768885522756</v>
       </c>
       <c r="D47" t="n">
-        <v>1.615307277456598</v>
+        <v>1.215743644612701</v>
       </c>
       <c r="E47" t="n">
         <v>734</v>
@@ -1520,7 +1520,7 @@
         <v>0.1323953823953824</v>
       </c>
       <c r="G47" t="n">
-        <v>0.002101514006275911</v>
+        <v>11.65079365079365</v>
       </c>
     </row>
     <row r="48">
@@ -1534,7 +1534,7 @@
         <v>0.8952418109147088</v>
       </c>
       <c r="D48" t="n">
-        <v>1.615307277456598</v>
+        <v>1.137424104047591</v>
       </c>
       <c r="E48" t="n">
         <v>451</v>
@@ -1543,7 +1543,7 @@
         <v>0.08134920634920635</v>
       </c>
       <c r="G48" t="n">
-        <v>0.001291257243638196</v>
+        <v>7.158730158730159</v>
       </c>
     </row>
     <row r="49">
@@ -1557,7 +1557,7 @@
         <v>0.706575225502815</v>
       </c>
       <c r="D49" t="n">
-        <v>1.615307277456598</v>
+        <v>1.148266439985296</v>
       </c>
       <c r="E49" t="n">
         <v>194</v>
@@ -1566,7 +1566,7 @@
         <v>0.03499278499278499</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0005554410316315078</v>
+        <v>3.07936507936508</v>
       </c>
     </row>
     <row r="50">
@@ -1580,7 +1580,7 @@
         <v>0.7394022178072612</v>
       </c>
       <c r="D50" t="n">
-        <v>1.615307277456598</v>
+        <v>1.401531578137174</v>
       </c>
       <c r="E50" t="n">
         <v>48</v>
@@ -1589,7 +1589,7 @@
         <v>0.008658008658008658</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0001374287088572803</v>
+        <v>0.7619047619047619</v>
       </c>
     </row>
     <row r="51">
@@ -1600,9 +1600,7 @@
         <v>1</v>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
-        <v>1.615307277456598</v>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
         <v>0</v>
       </c>
